--- a/144F20/Topic 2/conversions.xlsx
+++ b/144F20/Topic 2/conversions.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE40E5D-6CBA-4FD0-90F1-8788E65CD637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{ACE40E5D-6CBA-4FD0-90F1-8788E65CD637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD76F85E-7621-4DD4-94C8-2E3449186B91}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2C70D319-28A0-4310-81A6-6746306450C5}"/>
+    <workbookView xWindow="4224" yWindow="1500" windowWidth="15924" windowHeight="10836" xr2:uid="{2C70D319-28A0-4310-81A6-6746306450C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Video Examples" sheetId="5" r:id="rId1"/>
-    <sheet name="Complete for participation post" sheetId="7" r:id="rId2"/>
-    <sheet name="AutoGrading" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="Video Examples" sheetId="1" r:id="rId1"/>
+    <sheet name="Complete for participation post" sheetId="2" r:id="rId2"/>
+    <sheet name="AutoGrading" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{9A772C92-E690-48BC-8932-6897336C3E51}" mergeInterval="0" personalView="1" xWindow="352" yWindow="125" windowWidth="1327" windowHeight="903" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -265,9 +268,6 @@
     <t>Have you entered a valid Excel formula?</t>
   </si>
   <si>
-    <t xml:space="preserve">This sheet is self grading to some extent, it checks that you have used formulas and it checks that the final answer is correct. If this is so, then the final answer shows in green text, else red. </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="18"/>
@@ -289,6 +289,55 @@
       <t xml:space="preserve"> Now, use entries from the conversion table to perform the following conversions.  Note that you may use entries only from the table above, even if a more direct conversion is possible.  For each part, the number of ratios required is shown in the table.  Note that your ratios for the formulas may be either one of the conversion factors above (like =F10 or =F10/B10) or the reciprocal (like =1/F9 or =B9/F9), as illustrated in the example.  No special formatting is required for the cells containing your formulas.  In the blue cells, enter the ratio of units that you multiplied by for each conversion. You should use the abbreviations provided above, including capitalization as given.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet is self grading to some extent, it checks that you have used formulas and it checks that the final answer is correct. If this is so, then the final answer shows in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text, else </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -298,7 +347,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,14 +386,39 @@
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +467,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="44">
     <border>
@@ -1200,17 +1280,164 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1224,6 +1451,102 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1237,106 +1560,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1360,6 +1583,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1372,10 +1615,47 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1383,30 +1663,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1419,199 +1679,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1620,8 +1700,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1643,37 +1728,11 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1690,21 +1749,26 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>193963</xdr:colOff>
+      <xdr:colOff>96982</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="243861" cy="213378"/>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508288</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>353291</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F13CE13-D14F-496A-9D02-C02C2F5949CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43749CC2-DB19-7901-1764-497E65939488}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,15 +1777,22 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:alphaModFix amt="20000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11125199" y="6533805"/>
-          <a:ext cx="243861" cy="213378"/>
+          <a:off x="11028218" y="6553201"/>
+          <a:ext cx="411306" cy="318654"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1729,22 +1800,27 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>131619</xdr:colOff>
+      <xdr:colOff>90054</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>15932</xdr:rowOff>
+      <xdr:rowOff>41565</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="243861" cy="213378"/>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>501360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>360219</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08CF6841-D582-4E5A-92F3-54DB7AB4D333}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA8E381-6205-493A-8552-CC9DA506E88E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,15 +1829,22 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:alphaModFix amt="20000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11062855" y="6908568"/>
-          <a:ext cx="243861" cy="213378"/>
+          <a:off x="11021290" y="6934201"/>
+          <a:ext cx="411306" cy="318654"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1769,22 +1852,27 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>171796</xdr:colOff>
+      <xdr:colOff>103910</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>21475</xdr:rowOff>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="243861" cy="213378"/>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>515216</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>353290</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E52734-1D41-40E2-9002-4A65B84A3185}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5C5E0C-9FD6-4719-9F3C-70503C568795}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,15 +1881,22 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:alphaModFix amt="20000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11103032" y="7288184"/>
-          <a:ext cx="243861" cy="213378"/>
+          <a:off x="11035146" y="7301345"/>
+          <a:ext cx="411306" cy="318654"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1809,47 +1904,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>173183</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15933</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="243861" cy="213378"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139FD202-26B3-DAB6-089C-D75D6141C008}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11104419" y="6908569"/>
-          <a:ext cx="243861" cy="213378"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1913,6 +1968,28 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B1625FBC-9BB7-4218-B1BF-9EC627FEBBB1}">
+  <header guid="{B1625FBC-9BB7-4218-B1BF-9EC627FEBBB1}" dateTime="2023-02-22T10:12:50" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{B1625FBC-9BB7-4218-B1BF-9EC627FEBBB1}" name="Richard Ketchersid" id="-1739538484" dateTime="2023-02-22T10:12:50"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2215,7 +2292,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:H15"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2239,316 +2316,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="84"/>
+      <c r="C3" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="85"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="J4" s="86" t="s">
+      <c r="H4" s="103"/>
+      <c r="J4" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="106"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="67"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="7">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="J5" s="80" t="s">
+      <c r="H5" s="103"/>
+      <c r="J5" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="80" t="s">
+      <c r="K5" s="108"/>
+      <c r="L5" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="67"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="8">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="J6" s="82" t="s">
+      <c r="H6" s="103"/>
+      <c r="J6" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="75" t="s">
+      <c r="K6" s="110"/>
+      <c r="L6" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="113"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="67"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="7">
         <v>1000</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="J7" s="73" t="s">
+      <c r="H7" s="103"/>
+      <c r="J7" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75" t="s">
+      <c r="K7" s="115"/>
+      <c r="L7" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="113"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="7">
         <v>1000</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="J8" s="78" t="s">
+      <c r="H8" s="103"/>
+      <c r="J8" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="75" t="s">
+      <c r="K8" s="117"/>
+      <c r="L8" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="113"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="7">
         <v>1000</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="J9" s="69" t="s">
+      <c r="H9" s="103"/>
+      <c r="J9" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="69" t="s">
+      <c r="K9" s="119"/>
+      <c r="L9" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="71"/>
-      <c r="N9" s="72"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="121"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="67"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="8">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="68"/>
+      <c r="H10" s="103"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="8">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="68"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="67"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="8">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="68"/>
+      <c r="H12" s="103"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="8">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="103"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="10">
         <v>24</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="59"/>
+      <c r="H14" s="123"/>
     </row>
     <row r="15" spans="1:15" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+      <c r="A15" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
     </row>
     <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42"/>
@@ -2625,9 +2702,9 @@
       <c r="I17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="126"/>
       <c r="M17" s="2" t="s">
         <v>2</v>
       </c>
@@ -2659,15 +2736,15 @@
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
       <c r="M18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N18" s="49"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="57" t="s">
+      <c r="P18" s="157" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2701,7 +2778,7 @@
       </c>
       <c r="N19" s="28"/>
       <c r="O19" s="30"/>
-      <c r="P19" s="57" t="s">
+      <c r="P19" s="157" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2735,19 +2812,45 @@
       </c>
       <c r="N20" s="28"/>
       <c r="O20" s="30"/>
-      <c r="P20" s="57" t="s">
+      <c r="P20" s="157" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
+  <customSheetViews>
+    <customSheetView guid="{9A772C92-E690-48BC-8932-6897336C3E51}" scale="110">
+      <selection sqref="A1:O1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="39">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
@@ -2756,40 +2859,21 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P18" r:id="rId1" xr:uid="{42765DC2-1FF6-4F88-8A72-DEEB2B187DD8}"/>
-    <hyperlink ref="P19" r:id="rId2" xr:uid="{983766EE-6A70-4BD9-B911-B2808A7972D6}"/>
-    <hyperlink ref="P20" r:id="rId3" xr:uid="{BBA8AE61-55CD-4A2B-957A-E0053A14EC7B}"/>
+    <hyperlink ref="P18" r:id="rId2" xr:uid="{8DA6202E-0F28-4757-ACD2-605ADF5B8558}"/>
+    <hyperlink ref="P19" r:id="rId3" xr:uid="{C96FF3D7-115B-44B1-A00D-B630C5A30954}"/>
+    <hyperlink ref="P20" r:id="rId4" xr:uid="{8266EACE-F30A-492A-8AE5-42D5BE3FC080}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2797,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95B9BA3-E371-4AC3-A0FE-646769924D59}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2822,318 +2906,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="84"/>
+      <c r="C3" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="85"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="J4" s="86" t="s">
+      <c r="H4" s="103"/>
+      <c r="J4" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="106"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="67"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="7">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="J5" s="80" t="s">
+      <c r="H5" s="103"/>
+      <c r="J5" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="80" t="s">
+      <c r="K5" s="108"/>
+      <c r="L5" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="67"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="8">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="J6" s="82" t="s">
+      <c r="H6" s="103"/>
+      <c r="J6" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="75" t="s">
+      <c r="K6" s="110"/>
+      <c r="L6" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="113"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="67"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="7">
         <v>1000</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="J7" s="73" t="s">
+      <c r="H7" s="103"/>
+      <c r="J7" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75" t="s">
+      <c r="K7" s="115"/>
+      <c r="L7" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="113"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="7">
         <v>1000</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="J8" s="78" t="s">
+      <c r="H8" s="103"/>
+      <c r="J8" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="75" t="s">
+      <c r="K8" s="117"/>
+      <c r="L8" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="113"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="7">
         <v>1000</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="J9" s="69" t="s">
+      <c r="H9" s="103"/>
+      <c r="J9" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="69" t="s">
+      <c r="K9" s="119"/>
+      <c r="L9" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="71"/>
-      <c r="N9" s="72"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="121"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="67"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="8">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="68"/>
+      <c r="H10" s="103"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="8">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="68"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="67"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="8">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="68"/>
+      <c r="H12" s="103"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="8">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="103"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="10">
         <v>24</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="59"/>
+      <c r="H14" s="123"/>
     </row>
     <row r="15" spans="1:15" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="132"/>
+      <c r="J15" s="158" t="s">
         <v>70</v>
-      </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96"/>
-      <c r="J15" s="158" t="s">
-        <v>69</v>
       </c>
       <c r="K15" s="159"/>
       <c r="L15" s="159"/>
@@ -3205,9 +3289,9 @@
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="135"/>
       <c r="M17" s="22" t="s">
         <v>2</v>
       </c>
@@ -3244,10 +3328,10 @@
       </c>
       <c r="N18" s="54"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="92" t="s">
+      <c r="P18" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="Q18" s="93"/>
+      <c r="Q18" s="129"/>
     </row>
     <row r="19" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
@@ -3284,7 +3368,38 @@
     <row r="27" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection formatCells="0"/>
+  <customSheetViews>
+    <customSheetView guid="{9A772C92-E690-48BC-8932-6897336C3E51}">
+      <selection activeCell="O15" sqref="O15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="40">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="J15:N15"/>
     <mergeCell ref="A1:O1"/>
@@ -3301,38 +3416,14 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="E17:E19 H17:H19 K18:K19 N17:N19">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>NOT(OR(ISBLANK(E17),_xlfn.ISFORMULA(E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3393,587 +3484,621 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" style="100" customWidth="1"/>
-    <col min="2" max="2" width="10" style="100" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="100" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="100" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="100" customWidth="1"/>
-    <col min="6" max="6" width="14" style="100" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="100" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="100" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" style="100" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="100" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="100" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" style="100" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" style="100" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="100" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="100" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="100"/>
+    <col min="1" max="1" width="31.5546875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="10" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="14" style="57" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="57" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="57" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="57" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="57" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="57" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" style="57" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="103" t="s">
+      <c r="C3" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="152"/>
+      <c r="E3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="104"/>
+      <c r="H3" s="153"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="105">
-        <v>1</v>
-      </c>
-      <c r="C4" s="106" t="s">
+      <c r="B4" s="60">
+        <v>1</v>
+      </c>
+      <c r="C4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="107">
+      <c r="D4" s="144"/>
+      <c r="E4" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="61">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="J4" s="109" t="s">
+      <c r="H4" s="145"/>
+      <c r="J4" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="111"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="156"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="105">
-        <v>1</v>
-      </c>
-      <c r="C5" s="106" t="s">
+      <c r="B5" s="60">
+        <v>1</v>
+      </c>
+      <c r="C5" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="107">
+      <c r="D5" s="144"/>
+      <c r="E5" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="61">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="J5" s="112" t="s">
+      <c r="H5" s="145"/>
+      <c r="J5" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="113"/>
-      <c r="L5" s="112" t="s">
+      <c r="K5" s="151"/>
+      <c r="L5" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="108"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="145"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="105">
-        <v>1</v>
-      </c>
-      <c r="C6" s="106" t="s">
+      <c r="B6" s="60">
+        <v>1</v>
+      </c>
+      <c r="C6" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="114">
+      <c r="D6" s="144"/>
+      <c r="E6" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="62">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="108"/>
-      <c r="J6" s="112" t="s">
+      <c r="H6" s="145"/>
+      <c r="J6" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="113"/>
-      <c r="L6" s="112" t="s">
+      <c r="K6" s="151"/>
+      <c r="L6" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="106"/>
-      <c r="N6" s="108"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="145"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="105">
-        <v>1</v>
-      </c>
-      <c r="C7" s="106" t="s">
+      <c r="B7" s="60">
+        <v>1</v>
+      </c>
+      <c r="C7" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="107">
+      <c r="D7" s="144"/>
+      <c r="E7" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="61">
         <v>1000</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="J7" s="112" t="s">
+      <c r="H7" s="145"/>
+      <c r="J7" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="113"/>
-      <c r="L7" s="112" t="s">
+      <c r="K7" s="151"/>
+      <c r="L7" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="106"/>
-      <c r="N7" s="108"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="145"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="105">
-        <v>1</v>
-      </c>
-      <c r="C8" s="106" t="s">
+      <c r="B8" s="60">
+        <v>1</v>
+      </c>
+      <c r="C8" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="107">
+      <c r="D8" s="144"/>
+      <c r="E8" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="61">
         <v>1000</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="J8" s="112" t="s">
+      <c r="H8" s="145"/>
+      <c r="J8" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="113"/>
-      <c r="L8" s="112" t="s">
+      <c r="K8" s="151"/>
+      <c r="L8" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="106"/>
-      <c r="N8" s="108"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="145"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="105">
-        <v>1</v>
-      </c>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="60">
+        <v>1</v>
+      </c>
+      <c r="C9" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="107">
+      <c r="D9" s="144"/>
+      <c r="E9" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="61">
         <v>1000</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="J9" s="115" t="s">
+      <c r="H9" s="145"/>
+      <c r="J9" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="115" t="s">
+      <c r="K9" s="147"/>
+      <c r="L9" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="117"/>
-      <c r="N9" s="118"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="149"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="105">
-        <v>1</v>
-      </c>
-      <c r="C10" s="106" t="s">
+      <c r="B10" s="60">
+        <v>1</v>
+      </c>
+      <c r="C10" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="114">
+      <c r="D10" s="144"/>
+      <c r="E10" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="62">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="108"/>
+      <c r="H10" s="145"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="105">
-        <v>1</v>
-      </c>
-      <c r="C11" s="106" t="s">
+      <c r="B11" s="60">
+        <v>1</v>
+      </c>
+      <c r="C11" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="114">
+      <c r="D11" s="144"/>
+      <c r="E11" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="62">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="108"/>
+      <c r="H11" s="145"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="105">
-        <v>1</v>
-      </c>
-      <c r="C12" s="106" t="s">
+      <c r="B12" s="60">
+        <v>1</v>
+      </c>
+      <c r="C12" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="114">
+      <c r="D12" s="144"/>
+      <c r="E12" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="62">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="108"/>
+      <c r="H12" s="145"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="105">
-        <v>1</v>
-      </c>
-      <c r="C13" s="106" t="s">
+      <c r="B13" s="60">
+        <v>1</v>
+      </c>
+      <c r="C13" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="114">
+      <c r="D13" s="144"/>
+      <c r="E13" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="62">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="108"/>
+      <c r="H13" s="145"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="119">
-        <v>1</v>
-      </c>
-      <c r="C14" s="120" t="s">
+      <c r="B14" s="63">
+        <v>1</v>
+      </c>
+      <c r="C14" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="121">
+      <c r="D14" s="136"/>
+      <c r="E14" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="64">
         <v>24</v>
       </c>
-      <c r="G14" s="120" t="s">
+      <c r="G14" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="122"/>
+      <c r="H14" s="137"/>
     </row>
     <row r="15" spans="1:15" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="140"/>
     </row>
     <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="123"/>
-      <c r="B16" s="124" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="126" t="s">
+      <c r="D16" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="128" t="s">
+      <c r="H16" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="129" t="s">
+      <c r="I16" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="129" t="s">
+      <c r="J16" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="129" t="s">
+      <c r="K16" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="129" t="s">
+      <c r="L16" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="129" t="s">
+      <c r="M16" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="130" t="s">
+      <c r="O16" s="72" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="132">
+      <c r="B17" s="74">
         <v>23</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="133" t="s">
+      <c r="D17" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="134">
+      <c r="E17" s="76">
         <f>F5/B5</f>
         <v>29.573499999999999</v>
       </c>
-      <c r="F17" s="135" t="s">
+      <c r="F17" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="133" t="s">
+      <c r="G17" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="134">
+      <c r="H17" s="76">
         <f>B4/F4</f>
         <v>0.45359290943563974</v>
       </c>
-      <c r="I17" s="135" t="s">
+      <c r="I17" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="136"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="133" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" s="139">
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="78">
         <f>B17*E17*H17</f>
         <v>308.52958786548248</v>
       </c>
-      <c r="O17" s="140" t="s">
+      <c r="O17" s="79" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="142">
+      <c r="B18" s="81">
         <v>250</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="144" t="s">
+      <c r="D18" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="145">
+      <c r="E18" s="84">
         <f>F14/B14</f>
         <v>24</v>
       </c>
-      <c r="F18" s="146" t="s">
+      <c r="F18" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="144" t="s">
+      <c r="G18" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="145">
+      <c r="H18" s="84">
         <f>F4/B4</f>
         <v>2.2046199999999998</v>
       </c>
-      <c r="I18" s="146" t="s">
+      <c r="I18" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="144" t="s">
+      <c r="J18" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="147">
+      <c r="K18" s="86">
         <f>F12/B12</f>
         <v>4.9289199999999997</v>
       </c>
-      <c r="L18" s="144" t="s">
+      <c r="L18" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="M18" s="144" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="148">
+      <c r="M18" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="87">
         <f>B18*E18*H18*K18</f>
         <v>65198.373662399994</v>
       </c>
-      <c r="O18" s="149" t="s">
+      <c r="O18" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="151">
+      <c r="B19" s="90">
         <v>13</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="153" t="s">
+      <c r="D19" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="154">
+      <c r="E19" s="93">
         <f>F13/B13</f>
         <v>3.28084</v>
       </c>
-      <c r="F19" s="155" t="s">
+      <c r="F19" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="153" t="s">
+      <c r="G19" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="154">
+      <c r="H19" s="93">
         <f>F13/B13</f>
         <v>3.28084</v>
       </c>
-      <c r="I19" s="155" t="str">
+      <c r="I19" s="94" t="str">
         <f>F19</f>
         <v>ft/m</v>
       </c>
-      <c r="J19" s="153" t="s">
+      <c r="J19" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="156">
+      <c r="K19" s="95">
         <f>B7/F7</f>
         <v>1E-3</v>
       </c>
-      <c r="L19" s="153" t="s">
+      <c r="L19" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="153" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" s="155">
+      <c r="M19" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="94">
         <f>B19*E19*H19*K19</f>
         <v>0.13993084437280001</v>
       </c>
-      <c r="O19" s="157" t="s">
+      <c r="O19" s="96" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C29" s="100" t="b">
+      <c r="C29" s="57" t="b">
         <f>IF(ISBLANK('Complete for participation post'!E17),TRUE,_xlfn.ISFORMULA('Complete for participation post'!E17))</f>
         <v>1</v>
       </c>
-      <c r="D29" s="100" t="b">
+      <c r="D29" s="57" t="b">
         <f>IF(ISBLANK('Complete for participation post'!H17),TRUE,_xlfn.ISFORMULA('Complete for participation post'!H17))</f>
         <v>1</v>
       </c>
-      <c r="F29" s="100" t="b">
+      <c r="F29" s="57" t="b">
         <f>IF(ISBLANK('Complete for participation post'!N17),TRUE,_xlfn.ISFORMULA('Complete for participation post'!N17))</f>
         <v>1</v>
       </c>
-      <c r="H29" s="100" t="b">
+      <c r="H29" s="57" t="b">
         <f>AND(C29:F31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C30" s="100" t="b">
+      <c r="C30" s="57" t="b">
         <f>IF(ISBLANK('Complete for participation post'!E18),TRUE,_xlfn.ISFORMULA('Complete for participation post'!E18))</f>
         <v>1</v>
       </c>
-      <c r="D30" s="100" t="b">
+      <c r="D30" s="57" t="b">
         <f>IF(ISBLANK('Complete for participation post'!H18),TRUE,_xlfn.ISFORMULA('Complete for participation post'!H18))</f>
         <v>1</v>
       </c>
-      <c r="E30" s="100" t="b">
+      <c r="E30" s="57" t="b">
         <f>IF(ISBLANK('Complete for participation post'!K18),TRUE,_xlfn.ISFORMULA('Complete for participation post'!K18))</f>
         <v>1</v>
       </c>
-      <c r="F30" s="100" t="b">
+      <c r="F30" s="57" t="b">
         <f>IF(ISBLANK('Complete for participation post'!N18),TRUE,_xlfn.ISFORMULA('Complete for participation post'!N18))</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C31" s="100" t="b">
+      <c r="C31" s="57" t="b">
         <f>IF(ISBLANK('Complete for participation post'!E19),TRUE,_xlfn.ISFORMULA('Complete for participation post'!E19))</f>
         <v>1</v>
       </c>
-      <c r="D31" s="100" t="b">
+      <c r="D31" s="57" t="b">
         <f>IF(ISBLANK('Complete for participation post'!H19),TRUE,_xlfn.ISFORMULA('Complete for participation post'!H19))</f>
         <v>1</v>
       </c>
-      <c r="E31" s="100" t="b">
+      <c r="E31" s="57" t="b">
         <f>IF(ISBLANK('Complete for participation post'!K19),TRUE,_xlfn.ISFORMULA('Complete for participation post'!K19))</f>
         <v>1</v>
       </c>
-      <c r="F31" s="100" t="b">
+      <c r="F31" s="57" t="b">
         <f>IF(ISBLANK('Complete for participation post'!N19),TRUE,_xlfn.ISFORMULA('Complete for participation post'!N19))</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="OdSz+s5BYnwptsdW5h+8Ml10u5iEhG4OJ5l2VlTsuoW7tjGWsaEuDNnZuFgfvyC1m8DawOMzyPQkFM082/t//w==" saltValue="bUymBn1tTzdlk5COT3RIrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <customSheetViews>
+    <customSheetView guid="{9A772C92-E690-48BC-8932-6897336C3E51}" state="hidden">
+      <selection activeCell="R1" sqref="R1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="38">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="A15:H15"/>
@@ -3984,34 +4109,6 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/conversions.xlsx
+++ b/144F20/Topic 2/conversions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{ACE40E5D-6CBA-4FD0-90F1-8788E65CD637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD76F85E-7621-4DD4-94C8-2E3449186B91}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{A67F1288-F665-49DB-AAB4-B8B672ACB345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4224" yWindow="1500" windowWidth="15924" windowHeight="10836" xr2:uid="{2C70D319-28A0-4310-81A6-6746306450C5}"/>
+    <workbookView xWindow="4224" yWindow="1500" windowWidth="17220" windowHeight="10068" xr2:uid="{2C70D319-28A0-4310-81A6-6746306450C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Video Examples" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{9A772C92-E690-48BC-8932-6897336C3E51}" mergeInterval="0" personalView="1" xWindow="352" yWindow="125" windowWidth="1327" windowHeight="903" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{9A772C92-E690-48BC-8932-6897336C3E51}" mergeInterval="0" personalView="1" xWindow="352" yWindow="125" windowWidth="1435" windowHeight="839" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="72">
   <si>
     <t>Quantity of</t>
   </si>
@@ -338,6 +338,9 @@
       <t xml:space="preserve">. </t>
     </r>
   </si>
+  <si>
+    <t>This page is the practice, to get credit you must complete the second tab titled "Complete for participation post."</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +350,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +420,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -474,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1051,12 +1060,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1439,6 +1488,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1451,6 +1512,90 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1459,14 +1604,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1476,98 +1613,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1595,12 +1640,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1615,6 +1672,66 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1627,72 +1744,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1905,6 +1978,139 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>692726</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>997249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>249384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Bent 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5CD6A5A-5243-0EEA-D8F4-68B0DB0F5687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8537722" y="3376908"/>
+          <a:ext cx="1060153" cy="4973782"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>976746</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2574616" cy="288925"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE4D436-2651-71DB-9C47-82C01CD49404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6774873" y="5313219"/>
+          <a:ext cx="2574616" cy="288925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Videos! ==&gt; ==&gt; ==&gt; ==&gt; ==&gt; ==&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1971,8 +2177,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B1625FBC-9BB7-4218-B1BF-9EC627FEBBB1}">
-  <header guid="{B1625FBC-9BB7-4218-B1BF-9EC627FEBBB1}" dateTime="2023-02-22T10:12:50" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{47A3873F-DAA1-47E7-B6E8-60A421A77CB0}">
+  <header guid="{47A3873F-DAA1-47E7-B6E8-60A421A77CB0}" dateTime="2023-03-03T14:12:42" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1988,7 +2194,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{B1625FBC-9BB7-4218-B1BF-9EC627FEBBB1}" name="Richard Ketchersid" id="-1739538484" dateTime="2023-02-22T10:12:50"/>
+  <userInfo guid="{47A3873F-DAA1-47E7-B6E8-60A421A77CB0}" name="Richard Ketchersid" id="-1739542208" dateTime="2023-03-03T14:12:42"/>
 </users>
 </file>
 
@@ -2289,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FE5C43-CFB9-4E0A-8EC5-BEE59135D8B9}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2316,316 +2522,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="102"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="100"/>
+      <c r="C3" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="124"/>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="101"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="103"/>
-      <c r="J4" s="104" t="s">
+      <c r="H4" s="108"/>
+      <c r="J4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="106"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="128"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="102"/>
+      <c r="D5" s="107"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="7">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="103"/>
-      <c r="J5" s="107" t="s">
+      <c r="H5" s="108"/>
+      <c r="J5" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="107" t="s">
+      <c r="K5" s="121"/>
+      <c r="L5" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="102"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="8">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="J6" s="109" t="s">
+      <c r="H6" s="108"/>
+      <c r="J6" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111" t="s">
+      <c r="K6" s="123"/>
+      <c r="L6" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="112"/>
-      <c r="N6" s="113"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="117"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="102"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="7">
         <v>1000</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="J7" s="114" t="s">
+      <c r="H7" s="108"/>
+      <c r="J7" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="111" t="s">
+      <c r="K7" s="114"/>
+      <c r="L7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="112"/>
-      <c r="N7" s="113"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="117"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="102"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="7">
         <v>1000</v>
       </c>
-      <c r="G8" s="102" t="s">
+      <c r="G8" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="J8" s="116" t="s">
+      <c r="H8" s="108"/>
+      <c r="J8" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="117"/>
-      <c r="L8" s="111" t="s">
+      <c r="K8" s="119"/>
+      <c r="L8" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="112"/>
-      <c r="N8" s="113"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="117"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="7">
         <v>1000</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="G9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="J9" s="118" t="s">
+      <c r="H9" s="108"/>
+      <c r="J9" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="119"/>
-      <c r="L9" s="118" t="s">
+      <c r="K9" s="110"/>
+      <c r="L9" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="120"/>
-      <c r="N9" s="121"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="8">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="103"/>
+      <c r="H10" s="108"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="102"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="8">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="102" t="s">
+      <c r="G11" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="103"/>
+      <c r="H11" s="108"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="102"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="8">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="102" t="s">
+      <c r="G12" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="103"/>
+      <c r="H12" s="108"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="102"/>
+      <c r="D13" s="107"/>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="8">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="102" t="s">
+      <c r="G13" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="103"/>
+      <c r="H13" s="108"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="122"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="10">
         <v>24</v>
       </c>
-      <c r="G14" s="122" t="s">
+      <c r="G14" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="123"/>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:15" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="102"/>
     </row>
     <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42"/>
@@ -2702,9 +2908,9 @@
       <c r="I17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="124"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="126"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
       <c r="M17" s="2" t="s">
         <v>2</v>
       </c>
@@ -2736,15 +2942,15 @@
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
       <c r="M18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N18" s="49"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="157" t="s">
+      <c r="P18" s="97" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2778,7 +2984,7 @@
       </c>
       <c r="N19" s="28"/>
       <c r="O19" s="30"/>
-      <c r="P19" s="157" t="s">
+      <c r="P19" s="97" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2812,37 +3018,56 @@
       </c>
       <c r="N20" s="28"/>
       <c r="O20" s="30"/>
-      <c r="P20" s="157" t="s">
+      <c r="P20" s="97" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E22" s="161" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="163"/>
+    </row>
+    <row r="23" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="164"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="166"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
   <customSheetViews>
-    <customSheetView guid="{9A772C92-E690-48BC-8932-6897336C3E51}" scale="110">
-      <selection sqref="A1:O1"/>
+    <customSheetView guid="{9A772C92-E690-48BC-8932-6897336C3E51}" scale="110" topLeftCell="A10">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="39">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
+  <mergeCells count="40">
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="J7:K7"/>
@@ -2851,20 +3076,23 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P18" r:id="rId2" xr:uid="{8DA6202E-0F28-4757-ACD2-605ADF5B8558}"/>
@@ -2906,323 +3134,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="102"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="100"/>
+      <c r="C3" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="124"/>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="101"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="103"/>
-      <c r="J4" s="104" t="s">
+      <c r="H4" s="108"/>
+      <c r="J4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="106"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="128"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="102"/>
+      <c r="D5" s="107"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="7">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="103"/>
-      <c r="J5" s="107" t="s">
+      <c r="H5" s="108"/>
+      <c r="J5" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="107" t="s">
+      <c r="K5" s="121"/>
+      <c r="L5" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="102"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="8">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="J6" s="109" t="s">
+      <c r="H6" s="108"/>
+      <c r="J6" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111" t="s">
+      <c r="K6" s="123"/>
+      <c r="L6" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="112"/>
-      <c r="N6" s="113"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="117"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="102"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="7">
         <v>1000</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="J7" s="114" t="s">
+      <c r="H7" s="108"/>
+      <c r="J7" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="111" t="s">
+      <c r="K7" s="114"/>
+      <c r="L7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="112"/>
-      <c r="N7" s="113"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="117"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="102"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="7">
         <v>1000</v>
       </c>
-      <c r="G8" s="102" t="s">
+      <c r="G8" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="J8" s="116" t="s">
+      <c r="H8" s="108"/>
+      <c r="J8" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="117"/>
-      <c r="L8" s="111" t="s">
+      <c r="K8" s="119"/>
+      <c r="L8" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="112"/>
-      <c r="N8" s="113"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="117"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="7">
         <v>1000</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="G9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="J9" s="118" t="s">
+      <c r="H9" s="108"/>
+      <c r="J9" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="119"/>
-      <c r="L9" s="118" t="s">
+      <c r="K9" s="110"/>
+      <c r="L9" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="120"/>
-      <c r="N9" s="121"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="8">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="103"/>
+      <c r="H10" s="108"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="102"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="8">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="102" t="s">
+      <c r="G11" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="103"/>
+      <c r="H11" s="108"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="102"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="8">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="102" t="s">
+      <c r="G12" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="103"/>
+      <c r="H12" s="108"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="102"/>
+      <c r="D13" s="107"/>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="8">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="102" t="s">
+      <c r="G13" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="103"/>
+      <c r="H13" s="108"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="122"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="10">
         <v>24</v>
       </c>
-      <c r="G14" s="122" t="s">
+      <c r="G14" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="123"/>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:15" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="132"/>
-      <c r="J15" s="158" t="s">
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="J15" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="160"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="139"/>
     </row>
     <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
@@ -3289,9 +3517,9 @@
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="135"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134"/>
       <c r="M17" s="22" t="s">
         <v>2</v>
       </c>
@@ -3328,10 +3556,10 @@
       </c>
       <c r="N18" s="54"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="128" t="s">
+      <c r="P18" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="Q18" s="129"/>
+      <c r="Q18" s="136"/>
     </row>
     <row r="19" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
@@ -3376,30 +3604,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="40">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="J15:N15"/>
     <mergeCell ref="A1:O1"/>
@@ -3416,6 +3620,30 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="E17:E19 H17:H19 K18:K19 N17:N19">
     <cfRule type="expression" dxfId="3" priority="2">
@@ -3503,88 +3731,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="140"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="142"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="152"/>
+      <c r="C3" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="143"/>
       <c r="E3" s="59" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="153"/>
+      <c r="H3" s="144"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="60">
         <v>1</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="61">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="145"/>
-      <c r="J4" s="154" t="s">
+      <c r="H4" s="146"/>
+      <c r="J4" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="156"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="149"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="60">
         <v>1</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="144"/>
+      <c r="D5" s="145"/>
       <c r="E5" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="61">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="144" t="s">
+      <c r="G5" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="145"/>
+      <c r="H5" s="146"/>
       <c r="J5" s="150" t="s">
         <v>10</v>
       </c>
@@ -3592,27 +3820,27 @@
       <c r="L5" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="144"/>
-      <c r="N5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="146"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="60">
         <v>1</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="144"/>
+      <c r="D6" s="145"/>
       <c r="E6" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="62">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="145"/>
+      <c r="H6" s="146"/>
       <c r="J6" s="150" t="s">
         <v>14</v>
       </c>
@@ -3620,27 +3848,27 @@
       <c r="L6" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="144"/>
-      <c r="N6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="146"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="60">
         <v>1</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="144"/>
+      <c r="D7" s="145"/>
       <c r="E7" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="61">
         <v>1000</v>
       </c>
-      <c r="G7" s="144" t="s">
+      <c r="G7" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="145"/>
+      <c r="H7" s="146"/>
       <c r="J7" s="150" t="s">
         <v>16</v>
       </c>
@@ -3648,27 +3876,27 @@
       <c r="L7" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="144"/>
-      <c r="N7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="146"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="60">
         <v>1</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="144"/>
+      <c r="D8" s="145"/>
       <c r="E8" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="61">
         <v>1000</v>
       </c>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="145"/>
+      <c r="H8" s="146"/>
       <c r="J8" s="150" t="s">
         <v>19</v>
       </c>
@@ -3676,143 +3904,143 @@
       <c r="L8" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="144"/>
-      <c r="N8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="146"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="60">
         <v>1</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="144"/>
+      <c r="D9" s="145"/>
       <c r="E9" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="61">
         <v>1000</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="J9" s="146" t="s">
+      <c r="H9" s="146"/>
+      <c r="J9" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="147"/>
-      <c r="L9" s="146" t="s">
+      <c r="K9" s="153"/>
+      <c r="L9" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="148"/>
-      <c r="N9" s="149"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="155"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="60">
         <v>1</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="144"/>
+      <c r="D10" s="145"/>
       <c r="E10" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="62">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="144" t="s">
+      <c r="G10" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="145"/>
+      <c r="H10" s="146"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="60">
         <v>1</v>
       </c>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="144"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="62">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="144" t="s">
+      <c r="G11" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="145"/>
+      <c r="H11" s="146"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="60">
         <v>1</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="144"/>
+      <c r="D12" s="145"/>
       <c r="E12" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="62">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="G12" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="145"/>
+      <c r="H12" s="146"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="60">
         <v>1</v>
       </c>
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="144"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="62">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="144" t="s">
+      <c r="G13" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="145"/>
+      <c r="H13" s="146"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="63">
         <v>1</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="136"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="64" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="64">
         <v>24</v>
       </c>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="137"/>
+      <c r="H14" s="157"/>
     </row>
     <row r="15" spans="1:15" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="140"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
     </row>
     <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="65"/>
@@ -3889,9 +4117,9 @@
       <c r="I17" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="141"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="143"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="160"/>
       <c r="M17" s="75" t="s">
         <v>2</v>
       </c>
@@ -4071,34 +4299,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="38">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="A15:H15"/>
@@ -4109,6 +4309,34 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/conversions.xlsx
+++ b/144F20/Topic 2/conversions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{A67F1288-F665-49DB-AAB4-B8B672ACB345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{A88DADF1-0170-41F1-9E77-1C1A294BC98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4224" yWindow="1500" windowWidth="17220" windowHeight="10068" xr2:uid="{2C70D319-28A0-4310-81A6-6746306450C5}"/>
+    <workbookView xWindow="2440" yWindow="11840" windowWidth="14350" windowHeight="8390" activeTab="1" xr2:uid="{2C70D319-28A0-4310-81A6-6746306450C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Video Examples" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{9A772C92-E690-48BC-8932-6897336C3E51}" mergeInterval="0" personalView="1" xWindow="352" yWindow="125" windowWidth="1435" windowHeight="839" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{9A772C92-E690-48BC-8932-6897336C3E51}" mergeInterval="0" personalView="1" xWindow="244" yWindow="1184" windowWidth="1435" windowHeight="839" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1492,11 +1492,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1512,6 +1528,102 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1528,92 +1640,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1640,24 +1684,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1672,6 +1704,50 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1680,14 +1756,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1697,74 +1765,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -2177,8 +2177,15 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{47A3873F-DAA1-47E7-B6E8-60A421A77CB0}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4139A668-DA0E-470B-B561-9D76331D4825}" diskRevisions="1" version="2">
   <header guid="{47A3873F-DAA1-47E7-B6E8-60A421A77CB0}" dateTime="2023-03-03T14:12:42" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4139A668-DA0E-470B-B561-9D76331D4825}" dateTime="2023-11-02T17:35:15" maxSheetId="4" userName="Richard Ketchersid" r:id="rId2">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2192,9 +2199,17 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{9A772C92-E690-48BC-8932-6897336C3E51}" action="delete"/>
+  <rcv guid="{9A772C92-E690-48BC-8932-6897336C3E51}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{47A3873F-DAA1-47E7-B6E8-60A421A77CB0}" name="Richard Ketchersid" id="-1739542208" dateTime="2023-03-03T14:12:42"/>
+  <userInfo guid="{4139A668-DA0E-470B-B561-9D76331D4825}" name="Richard Ketchersid" id="-1739572238" dateTime="2023-11-02T17:34:44"/>
 </users>
 </file>
 
@@ -2497,7 +2512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FE5C43-CFB9-4E0A-8EC5-BEE59135D8B9}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2522,316 +2537,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="106"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="124"/>
+      <c r="C3" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="107"/>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="125"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="J4" s="126" t="s">
+      <c r="H4" s="110"/>
+      <c r="J4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="113"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="7">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="J5" s="120" t="s">
+      <c r="H5" s="110"/>
+      <c r="J5" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="120" t="s">
+      <c r="K5" s="115"/>
+      <c r="L5" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="110"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="8">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="G6" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="108"/>
-      <c r="J6" s="122" t="s">
+      <c r="H6" s="110"/>
+      <c r="J6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="123"/>
-      <c r="L6" s="115" t="s">
+      <c r="K6" s="117"/>
+      <c r="L6" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="116"/>
-      <c r="N6" s="117"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="120"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="107"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="7">
         <v>1000</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="J7" s="113" t="s">
+      <c r="H7" s="110"/>
+      <c r="J7" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115" t="s">
+      <c r="K7" s="122"/>
+      <c r="L7" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="116"/>
-      <c r="N7" s="117"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="120"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="107"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="7">
         <v>1000</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="J8" s="118" t="s">
+      <c r="H8" s="110"/>
+      <c r="J8" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="119"/>
-      <c r="L8" s="115" t="s">
+      <c r="K8" s="124"/>
+      <c r="L8" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="116"/>
-      <c r="N8" s="117"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="120"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="7">
         <v>1000</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="J9" s="109" t="s">
+      <c r="H9" s="110"/>
+      <c r="J9" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="109" t="s">
+      <c r="K9" s="126"/>
+      <c r="L9" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="107"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="8">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="108"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="8">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="108"/>
+      <c r="H11" s="110"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="8">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="107" t="s">
+      <c r="G12" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="108"/>
+      <c r="H12" s="110"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="107"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="8">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="108"/>
+      <c r="H13" s="110"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="98"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="10">
         <v>24</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="99"/>
+      <c r="H14" s="130"/>
     </row>
     <row r="15" spans="1:15" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="102"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
     </row>
     <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42"/>
@@ -2908,9 +2923,9 @@
       <c r="I17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="105"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="133"/>
       <c r="M17" s="2" t="s">
         <v>2</v>
       </c>
@@ -2942,9 +2957,9 @@
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
       <c r="M18" s="2" t="s">
         <v>2</v>
       </c>
@@ -3024,35 +3039,59 @@
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E22" s="161" t="s">
+      <c r="E22" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="163"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="100"/>
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="164"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="166"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="103"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
   <customSheetViews>
-    <customSheetView guid="{9A772C92-E690-48BC-8932-6897336C3E51}" scale="110" topLeftCell="A10">
+    <customSheetView guid="{9A772C92-E690-48BC-8932-6897336C3E51}" scale="110" topLeftCell="A16">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="40">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="E22:K23"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C3:D3"/>
@@ -3069,30 +3108,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P18" r:id="rId2" xr:uid="{8DA6202E-0F28-4757-ACD2-605ADF5B8558}"/>
@@ -3109,7 +3124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95B9BA3-E371-4AC3-A0FE-646769924D59}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -3134,316 +3149,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="106"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="124"/>
+      <c r="C3" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="107"/>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="125"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="J4" s="126" t="s">
+      <c r="H4" s="110"/>
+      <c r="J4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="113"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="7">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="J5" s="120" t="s">
+      <c r="H5" s="110"/>
+      <c r="J5" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="120" t="s">
+      <c r="K5" s="115"/>
+      <c r="L5" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="110"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="8">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="G6" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="108"/>
-      <c r="J6" s="122" t="s">
+      <c r="H6" s="110"/>
+      <c r="J6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="123"/>
-      <c r="L6" s="115" t="s">
+      <c r="K6" s="117"/>
+      <c r="L6" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="116"/>
-      <c r="N6" s="117"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="120"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="107"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="7">
         <v>1000</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="J7" s="113" t="s">
+      <c r="H7" s="110"/>
+      <c r="J7" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115" t="s">
+      <c r="K7" s="122"/>
+      <c r="L7" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="116"/>
-      <c r="N7" s="117"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="120"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="107"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="7">
         <v>1000</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="J8" s="118" t="s">
+      <c r="H8" s="110"/>
+      <c r="J8" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="119"/>
-      <c r="L8" s="115" t="s">
+      <c r="K8" s="124"/>
+      <c r="L8" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="116"/>
-      <c r="N8" s="117"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="120"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="7">
         <v>1000</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="J9" s="109" t="s">
+      <c r="H9" s="110"/>
+      <c r="J9" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="109" t="s">
+      <c r="K9" s="126"/>
+      <c r="L9" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="107"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="8">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="108"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="8">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="108"/>
+      <c r="H11" s="110"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="8">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="107" t="s">
+      <c r="G12" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="108"/>
+      <c r="H12" s="110"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="107"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="8">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="108"/>
+      <c r="H13" s="110"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="98"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="10">
         <v>24</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="99"/>
+      <c r="H14" s="130"/>
     </row>
     <row r="15" spans="1:15" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="131"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
       <c r="J15" s="137" t="s">
         <v>70</v>
       </c>
@@ -3517,16 +3532,16 @@
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="134"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="145"/>
       <c r="M17" s="22" t="s">
         <v>2</v>
       </c>
       <c r="N17" s="25"/>
       <c r="O17" s="26"/>
     </row>
-    <row r="18" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
         <v>40</v>
       </c>
@@ -3597,13 +3612,37 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <customSheetViews>
-    <customSheetView guid="{9A772C92-E690-48BC-8932-6897336C3E51}">
+    <customSheetView guid="{9A772C92-E690-48BC-8932-6897336C3E51}" topLeftCell="A16">
       <selection activeCell="O15" sqref="O15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="40">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="J15:N15"/>
     <mergeCell ref="A1:O1"/>
@@ -3620,30 +3659,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="E17:E19 H17:H19 K18:K19 N17:N19">
     <cfRule type="expression" dxfId="3" priority="2">
@@ -3731,316 +3746,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="142"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="150"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="143"/>
+      <c r="C3" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="162"/>
       <c r="E3" s="59" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="143" t="s">
+      <c r="G3" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="144"/>
+      <c r="H3" s="163"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="60">
         <v>1</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="145"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="61">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="145" t="s">
+      <c r="G4" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="J4" s="147" t="s">
+      <c r="H4" s="155"/>
+      <c r="J4" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="149"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="166"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="60">
         <v>1</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="145"/>
+      <c r="D5" s="154"/>
       <c r="E5" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="61">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="145" t="s">
+      <c r="G5" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="J5" s="150" t="s">
+      <c r="H5" s="155"/>
+      <c r="J5" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="151"/>
-      <c r="L5" s="150" t="s">
+      <c r="K5" s="161"/>
+      <c r="L5" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="145"/>
-      <c r="N5" s="146"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="155"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="60">
         <v>1</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="145"/>
+      <c r="D6" s="154"/>
       <c r="E6" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="62">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="145" t="s">
+      <c r="G6" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="146"/>
-      <c r="J6" s="150" t="s">
+      <c r="H6" s="155"/>
+      <c r="J6" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="151"/>
-      <c r="L6" s="150" t="s">
+      <c r="K6" s="161"/>
+      <c r="L6" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="145"/>
-      <c r="N6" s="146"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="155"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="60">
         <v>1</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="145"/>
+      <c r="D7" s="154"/>
       <c r="E7" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="61">
         <v>1000</v>
       </c>
-      <c r="G7" s="145" t="s">
+      <c r="G7" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="146"/>
-      <c r="J7" s="150" t="s">
+      <c r="H7" s="155"/>
+      <c r="J7" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="151"/>
-      <c r="L7" s="150" t="s">
+      <c r="K7" s="161"/>
+      <c r="L7" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="145"/>
-      <c r="N7" s="146"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="155"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="60">
         <v>1</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="145"/>
+      <c r="D8" s="154"/>
       <c r="E8" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="61">
         <v>1000</v>
       </c>
-      <c r="G8" s="145" t="s">
+      <c r="G8" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="146"/>
-      <c r="J8" s="150" t="s">
+      <c r="H8" s="155"/>
+      <c r="J8" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="151"/>
-      <c r="L8" s="150" t="s">
+      <c r="K8" s="161"/>
+      <c r="L8" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="145"/>
-      <c r="N8" s="146"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="155"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="60">
         <v>1</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="145"/>
+      <c r="D9" s="154"/>
       <c r="E9" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="61">
         <v>1000</v>
       </c>
-      <c r="G9" s="145" t="s">
+      <c r="G9" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="146"/>
-      <c r="J9" s="152" t="s">
+      <c r="H9" s="155"/>
+      <c r="J9" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="153"/>
-      <c r="L9" s="152" t="s">
+      <c r="K9" s="157"/>
+      <c r="L9" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="154"/>
-      <c r="N9" s="155"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="159"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="60">
         <v>1</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="145"/>
+      <c r="D10" s="154"/>
       <c r="E10" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="62">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="145" t="s">
+      <c r="G10" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="146"/>
+      <c r="H10" s="155"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="60">
         <v>1</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="145"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="62">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="145" t="s">
+      <c r="G11" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="146"/>
+      <c r="H11" s="155"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="60">
         <v>1</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="145"/>
+      <c r="D12" s="154"/>
       <c r="E12" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="62">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="145" t="s">
+      <c r="G12" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="146"/>
+      <c r="H12" s="155"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="60">
         <v>1</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="145"/>
+      <c r="D13" s="154"/>
       <c r="E13" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="62">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="145" t="s">
+      <c r="G13" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="146"/>
+      <c r="H13" s="155"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="63">
         <v>1</v>
       </c>
-      <c r="C14" s="156" t="s">
+      <c r="C14" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="156"/>
+      <c r="D14" s="146"/>
       <c r="E14" s="64" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="64">
         <v>24</v>
       </c>
-      <c r="G14" s="156" t="s">
+      <c r="G14" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="157"/>
+      <c r="H14" s="147"/>
     </row>
     <row r="15" spans="1:15" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
     </row>
     <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="65"/>
@@ -4117,9 +4132,9 @@
       <c r="I17" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="158"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="160"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="153"/>
       <c r="M17" s="75" t="s">
         <v>2</v>
       </c>
@@ -4299,6 +4314,34 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="38">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="A15:H15"/>
@@ -4309,34 +4352,6 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/144F20/Topic 2/conversions.xlsx
+++ b/144F20/Topic 2/conversions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{A88DADF1-0170-41F1-9E77-1C1A294BC98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="10_ncr:80_{8E9BA9F1-E716-4398-81A3-A1CBC6AB95E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F9A199A-1359-4231-96DF-DD370CA4FF6F}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="11840" windowWidth="14350" windowHeight="8390" activeTab="1" xr2:uid="{2C70D319-28A0-4310-81A6-6746306450C5}"/>
+    <workbookView xWindow="2676" yWindow="828" windowWidth="18384" windowHeight="11352" xr2:uid="{2C70D319-28A0-4310-81A6-6746306450C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Video Examples" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +482,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="48">
     <border>
@@ -1492,30 +1498,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1765,6 +1747,30 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1824,13 +1830,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>96982</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>508288</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>353291</xdr:rowOff>
@@ -1876,13 +1882,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>90054</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>41565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>501360</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>360219</xdr:rowOff>
@@ -1928,13 +1934,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>103910</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>515216</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>353290</xdr:rowOff>
@@ -1980,13 +1986,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>692726</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>997249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>13854</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>249384</xdr:rowOff>
@@ -2050,7 +2056,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>34637</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>976746</xdr:rowOff>
@@ -2174,43 +2180,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4139A668-DA0E-470B-B561-9D76331D4825}" diskRevisions="1" version="2">
-  <header guid="{47A3873F-DAA1-47E7-B6E8-60A421A77CB0}" dateTime="2023-03-03T14:12:42" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4139A668-DA0E-470B-B561-9D76331D4825}" dateTime="2023-11-02T17:35:15" maxSheetId="4" userName="Richard Ketchersid" r:id="rId2">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{9A772C92-E690-48BC-8932-6897336C3E51}" action="delete"/>
-  <rcv guid="{9A772C92-E690-48BC-8932-6897336C3E51}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
-  <userInfo guid="{47A3873F-DAA1-47E7-B6E8-60A421A77CB0}" name="Richard Ketchersid" id="-1739542208" dateTime="2023-03-03T14:12:42"/>
-  <userInfo guid="{4139A668-DA0E-470B-B561-9D76331D4825}" name="Richard Ketchersid" id="-1739572238" dateTime="2023-11-02T17:34:44"/>
-</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2510,553 +2479,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FE5C43-CFB9-4E0A-8EC5-BEE59135D8B9}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="1.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="2:16" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="106"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="100"/>
+    </row>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D3" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="101"/>
       <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="H3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="108"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="109" t="s">
+      <c r="I3" s="102"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="103"/>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="H4" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="J4" s="111" t="s">
+      <c r="I4" s="104"/>
+      <c r="K4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="113"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="109" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="107"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="103"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="H5" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="J5" s="114" t="s">
+      <c r="I5" s="104"/>
+      <c r="K5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="109"/>
+      <c r="M5" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="110"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="109" t="s">
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="103"/>
+      <c r="F6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="H6" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="J6" s="116" t="s">
+      <c r="I6" s="104"/>
+      <c r="K6" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118" t="s">
+      <c r="L6" s="111"/>
+      <c r="M6" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="119"/>
-      <c r="N6" s="120"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="109" t="s">
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="103"/>
+      <c r="F7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
         <v>1000</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="H7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="J7" s="121" t="s">
+      <c r="I7" s="104"/>
+      <c r="K7" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="118" t="s">
+      <c r="L7" s="116"/>
+      <c r="M7" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="119"/>
-      <c r="N7" s="120"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="109" t="s">
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="103"/>
+      <c r="F8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
         <v>1000</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="H8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="J8" s="123" t="s">
+      <c r="I8" s="104"/>
+      <c r="K8" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="124"/>
-      <c r="L8" s="118" t="s">
+      <c r="L8" s="118"/>
+      <c r="M8" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="119"/>
-      <c r="N8" s="120"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="109" t="s">
+      <c r="N8" s="113"/>
+      <c r="O8" s="114"/>
+    </row>
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="103"/>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
         <v>1000</v>
       </c>
-      <c r="G9" s="109" t="s">
+      <c r="H9" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="J9" s="125" t="s">
+      <c r="I9" s="104"/>
+      <c r="K9" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="126"/>
-      <c r="L9" s="125" t="s">
+      <c r="L9" s="120"/>
+      <c r="M9" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="109" t="s">
+      <c r="N9" s="121"/>
+      <c r="O9" s="122"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="103"/>
+      <c r="F10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="109" t="s">
+      <c r="H10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="110"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="109" t="s">
+      <c r="I10" s="104"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="103"/>
+      <c r="F11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="H11" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="110"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="109" t="s">
+      <c r="I11" s="104"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="E12" s="103"/>
+      <c r="F12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="109" t="s">
+      <c r="H12" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="110"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="109" t="s">
+      <c r="I12" s="104"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="E13" s="103"/>
+      <c r="F13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="109" t="s">
+      <c r="H13" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="110"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="129" t="s">
+      <c r="I13" s="104"/>
+    </row>
+    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="E14" s="123"/>
+      <c r="F14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
         <v>24</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="H14" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="130"/>
-    </row>
-    <row r="15" spans="1:15" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="104" t="s">
+      <c r="I14" s="124"/>
+    </row>
+    <row r="15" spans="2:16" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="106"/>
-    </row>
-    <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43" t="s">
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
+    </row>
+    <row r="16" spans="2:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="D16" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="E16" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="G16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="I16" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="J16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="K16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="L16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="M16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>2</v>
-      </c>
       <c r="N16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="P16" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="2:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="27">
+      <c r="C17" s="27">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="47">
-        <f>F5/B5</f>
+      <c r="F17" s="47">
+        <f>G5/C5</f>
         <v>29.573499999999999</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="47">
-        <f>B4/F4</f>
+      <c r="I17" s="47">
+        <f>C4/G4</f>
         <v>0.45359290943563974</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="131"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" s="47">
-        <f>B17*E17*H17</f>
+      <c r="K17" s="125"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="47">
+        <f>C17*F17*I17</f>
         <v>335.35824767987231</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="P17" s="48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="40" t="s">
+    <row r="18" spans="2:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="27">
+      <c r="C18" s="27">
         <v>2.5</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="49"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="97" t="s">
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="2:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="50">
+      <c r="C19" s="50">
         <v>70</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="2" t="s">
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="97" t="s">
+      <c r="L19" s="52"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="2:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="27">
+      <c r="C20" s="27">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="2" t="s">
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="97" t="s">
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E22" s="98" t="s">
+    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="100"/>
-    </row>
-    <row r="23" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="103"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="163"/>
+    </row>
+    <row r="23" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="166"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
@@ -3068,51 +3038,51 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="40">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P18" r:id="rId2" xr:uid="{8DA6202E-0F28-4757-ACD2-605ADF5B8558}"/>
-    <hyperlink ref="P19" r:id="rId3" xr:uid="{C96FF3D7-115B-44B1-A00D-B630C5A30954}"/>
-    <hyperlink ref="P20" r:id="rId4" xr:uid="{8266EACE-F30A-492A-8AE5-42D5BE3FC080}"/>
+    <hyperlink ref="Q18" r:id="rId2" xr:uid="{8DA6202E-0F28-4757-ACD2-605ADF5B8558}"/>
+    <hyperlink ref="Q19" r:id="rId3" xr:uid="{C96FF3D7-115B-44B1-A00D-B630C5A30954}"/>
+    <hyperlink ref="Q20" r:id="rId4" xr:uid="{8266EACE-F30A-492A-8AE5-42D5BE3FC080}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3124,7 +3094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95B9BA3-E371-4AC3-A0FE-646769924D59}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -3149,323 +3119,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="106"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="100"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="107"/>
+      <c r="C3" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="101"/>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="108"/>
+      <c r="H3" s="102"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="109"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="J4" s="111" t="s">
+      <c r="H4" s="104"/>
+      <c r="J4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="113"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="107"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="109"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="7">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="J5" s="114" t="s">
+      <c r="H5" s="104"/>
+      <c r="J5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="114" t="s">
+      <c r="K5" s="109"/>
+      <c r="L5" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="110"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="104"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="109"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="8">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="J6" s="116" t="s">
+      <c r="H6" s="104"/>
+      <c r="J6" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118" t="s">
+      <c r="K6" s="111"/>
+      <c r="L6" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="119"/>
-      <c r="N6" s="120"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="109"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="7">
         <v>1000</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="J7" s="121" t="s">
+      <c r="H7" s="104"/>
+      <c r="J7" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="118" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="119"/>
-      <c r="N7" s="120"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="114"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="109"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="7">
         <v>1000</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="J8" s="123" t="s">
+      <c r="H8" s="104"/>
+      <c r="J8" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="124"/>
-      <c r="L8" s="118" t="s">
+      <c r="K8" s="118"/>
+      <c r="L8" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="119"/>
-      <c r="N8" s="120"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="109"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="7">
         <v>1000</v>
       </c>
-      <c r="G9" s="109" t="s">
+      <c r="G9" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="J9" s="125" t="s">
+      <c r="H9" s="104"/>
+      <c r="J9" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="126"/>
-      <c r="L9" s="125" t="s">
+      <c r="K9" s="120"/>
+      <c r="L9" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="122"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="109"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="8">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="109" t="s">
+      <c r="G10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="110"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="109"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="8">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="110"/>
+      <c r="H11" s="104"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="109"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="8">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="110"/>
+      <c r="H12" s="104"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="109"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="8">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="109" t="s">
+      <c r="G13" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="110"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="129"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="10">
         <v>24</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="G14" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="130"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:15" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
-      <c r="J15" s="137" t="s">
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="136"/>
+      <c r="J15" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="139"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="133"/>
     </row>
     <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
@@ -3532,9 +3502,9 @@
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="145"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="139"/>
       <c r="M17" s="22" t="s">
         <v>2</v>
       </c>
@@ -3571,10 +3541,10 @@
       </c>
       <c r="N18" s="54"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="135" t="s">
+      <c r="P18" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="Q18" s="136"/>
+      <c r="Q18" s="130"/>
     </row>
     <row r="19" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
@@ -3746,316 +3716,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="150"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="144"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="162"/>
+      <c r="C3" s="156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="156"/>
       <c r="E3" s="59" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="162" t="s">
+      <c r="G3" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="163"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="60">
         <v>1</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="154"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="61">
         <v>2.2046199999999998</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="J4" s="164" t="s">
+      <c r="H4" s="149"/>
+      <c r="J4" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="166"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="160"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="60">
         <v>1</v>
       </c>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="154"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="61">
         <v>29.573499999999999</v>
       </c>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="155"/>
-      <c r="J5" s="160" t="s">
+      <c r="H5" s="149"/>
+      <c r="J5" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="161"/>
-      <c r="L5" s="160" t="s">
+      <c r="K5" s="155"/>
+      <c r="L5" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="154"/>
-      <c r="N5" s="155"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="149"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="60">
         <v>1</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="62">
         <v>28.349523125000001</v>
       </c>
-      <c r="G6" s="154" t="s">
+      <c r="G6" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="155"/>
-      <c r="J6" s="160" t="s">
+      <c r="H6" s="149"/>
+      <c r="J6" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="161"/>
-      <c r="L6" s="160" t="s">
+      <c r="K6" s="155"/>
+      <c r="L6" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="154"/>
-      <c r="N6" s="155"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="149"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="60">
         <v>1</v>
       </c>
-      <c r="C7" s="154" t="s">
+      <c r="C7" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="154"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="61">
         <v>1000</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="155"/>
-      <c r="J7" s="160" t="s">
+      <c r="H7" s="149"/>
+      <c r="J7" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="160" t="s">
+      <c r="K7" s="155"/>
+      <c r="L7" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="154"/>
-      <c r="N7" s="155"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="149"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="60">
         <v>1</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="154"/>
+      <c r="D8" s="148"/>
       <c r="E8" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="61">
         <v>1000</v>
       </c>
-      <c r="G8" s="154" t="s">
+      <c r="G8" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="155"/>
-      <c r="J8" s="160" t="s">
+      <c r="H8" s="149"/>
+      <c r="J8" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="161"/>
-      <c r="L8" s="160" t="s">
+      <c r="K8" s="155"/>
+      <c r="L8" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="154"/>
-      <c r="N8" s="155"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="149"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="60">
         <v>1</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="154"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="61">
         <v>1000</v>
       </c>
-      <c r="G9" s="154" t="s">
+      <c r="G9" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="155"/>
-      <c r="J9" s="156" t="s">
+      <c r="H9" s="149"/>
+      <c r="J9" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="157"/>
-      <c r="L9" s="156" t="s">
+      <c r="K9" s="151"/>
+      <c r="L9" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="158"/>
-      <c r="N9" s="159"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="153"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="60">
         <v>1</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="154"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="62">
         <v>33.814022600000001</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="155"/>
+      <c r="H10" s="149"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="60">
         <v>1</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="154"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="62">
         <v>0.26417205235800001</v>
       </c>
-      <c r="G11" s="154" t="s">
+      <c r="G11" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="155"/>
+      <c r="H11" s="149"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="60">
         <v>1</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="154"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="62">
         <v>4.9289199999999997</v>
       </c>
-      <c r="G12" s="154" t="s">
+      <c r="G12" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="155"/>
+      <c r="H12" s="149"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="60">
         <v>1</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="62">
         <v>3.28084</v>
       </c>
-      <c r="G13" s="154" t="s">
+      <c r="G13" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="155"/>
+      <c r="H13" s="149"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="63">
         <v>1</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="146"/>
+      <c r="D14" s="140"/>
       <c r="E14" s="64" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="64">
         <v>24</v>
       </c>
-      <c r="G14" s="146" t="s">
+      <c r="G14" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="147"/>
+      <c r="H14" s="141"/>
     </row>
     <row r="15" spans="1:15" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="150"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="144"/>
     </row>
     <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="65"/>
@@ -4132,9 +4102,9 @@
       <c r="I17" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="151"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="153"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="147"/>
       <c r="M17" s="75" t="s">
         <v>2</v>
       </c>
